--- a/docs/vram.xlsx
+++ b/docs/vram.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectWork\ReSprinter\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectWork\VeriSprinter\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="125">
   <si>
     <t>Физические биты адреса</t>
   </si>
@@ -376,6 +376,30 @@
   </si>
   <si>
     <t>X0</t>
+  </si>
+  <si>
+    <t>Адресация пикселей тект</t>
+  </si>
+  <si>
+    <t>SCR</t>
+  </si>
+  <si>
+    <t>M0:7</t>
+  </si>
+  <si>
+    <t>M0:6</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>!V1</t>
+  </si>
+  <si>
+    <t>!V0</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -440,7 +464,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -448,11 +472,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -473,6 +534,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1534,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1899,45 +1969,136 @@
         <v>116</v>
       </c>
     </row>
+    <row r="11" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="U11" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
     <row r="13" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D15">
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4</v>
+      </c>
+      <c r="M14" s="1">
         <v>2</v>
       </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
+      <c r="Q14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="4:24" x14ac:dyDescent="0.25">
